--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,10 +11163,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964529</v>
+        <v>130964535</v>
       </c>
       <c r="B95" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509588</v>
+        <v>509939</v>
       </c>
       <c r="R95" t="n">
-        <v>6719099</v>
+        <v>6719007</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11265,10 +11265,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964535</v>
+        <v>130964529</v>
       </c>
       <c r="B96" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509939</v>
+        <v>509588</v>
       </c>
       <c r="R96" t="n">
-        <v>6719007</v>
+        <v>6719099</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11370,7 +11370,7 @@
         <v>130964573</v>
       </c>
       <c r="B97" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>130964540</v>
       </c>
       <c r="B99" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>130964531</v>
       </c>
       <c r="B100" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>130964543</v>
       </c>
       <c r="B101" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>130964526</v>
       </c>
       <c r="B102" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>130964547</v>
       </c>
       <c r="B103" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B104" t="n">
-        <v>57069</v>
+        <v>91808</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R104" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964642</v>
+        <v>130964545</v>
       </c>
       <c r="B105" t="n">
-        <v>99032</v>
+        <v>57073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>221952</v>
+        <v>100138</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509917</v>
+        <v>509535</v>
       </c>
       <c r="R105" t="n">
-        <v>6719042</v>
+        <v>6718925</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B106" t="n">
-        <v>91804</v>
+        <v>99036</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R106" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12390,7 +12390,7 @@
         <v>130964537</v>
       </c>
       <c r="B107" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>130964574</v>
       </c>
       <c r="B108" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>130964647</v>
       </c>
       <c r="B109" t="n">
-        <v>92102</v>
+        <v>92106</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>130964544</v>
       </c>
       <c r="B110" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>130964641</v>
       </c>
       <c r="B111" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>130964645</v>
       </c>
       <c r="B112" t="n">
-        <v>99032</v>
+        <v>99036</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964650</v>
+        <v>130964533</v>
       </c>
       <c r="B113" t="n">
-        <v>92263</v>
+        <v>79243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509694</v>
+        <v>509984</v>
       </c>
       <c r="R113" t="n">
-        <v>6718936</v>
+        <v>6719028</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964533</v>
+        <v>130964650</v>
       </c>
       <c r="B114" t="n">
-        <v>79239</v>
+        <v>92267</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509984</v>
+        <v>509694</v>
       </c>
       <c r="R114" t="n">
-        <v>6719028</v>
+        <v>6718936</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13206,7 +13206,7 @@
         <v>130964527</v>
       </c>
       <c r="B115" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>130964539</v>
       </c>
       <c r="B116" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>130964534</v>
       </c>
       <c r="B117" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>130964651</v>
       </c>
       <c r="B118" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>98926</v>
+        <v>92267</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R119" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>92263</v>
+        <v>98930</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R120" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13818,7 +13818,7 @@
         <v>130964536</v>
       </c>
       <c r="B121" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>130964640</v>
       </c>
       <c r="B122" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>130964542</v>
       </c>
       <c r="B123" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>98913</v>
+        <v>98917</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>130964643</v>
       </c>
       <c r="B125" t="n">
-        <v>98926</v>
+        <v>98930</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>130964390</v>
       </c>
       <c r="B126" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79239</v>
+        <v>92503</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92499</v>
+        <v>79243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14634,7 +14634,7 @@
         <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>130964639</v>
       </c>
       <c r="B130" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>130964532</v>
       </c>
       <c r="B131" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>99036</v>
+        <v>79243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964537</v>
+        <v>130964642</v>
       </c>
       <c r="B107" t="n">
-        <v>79243</v>
+        <v>99036</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509822</v>
+        <v>509917</v>
       </c>
       <c r="R107" t="n">
-        <v>6718960</v>
+        <v>6719042</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964645</v>
+        <v>130964533</v>
       </c>
       <c r="B112" t="n">
-        <v>99036</v>
+        <v>79243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509804</v>
+        <v>509984</v>
       </c>
       <c r="R112" t="n">
-        <v>6719024</v>
+        <v>6719028</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B113" t="n">
-        <v>79243</v>
+        <v>99036</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R113" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B127" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R127" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B128" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R128" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964537</v>
+        <v>130964642</v>
       </c>
       <c r="B106" t="n">
-        <v>79243</v>
+        <v>99036</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509822</v>
+        <v>509917</v>
       </c>
       <c r="R106" t="n">
-        <v>6718960</v>
+        <v>6719042</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B107" t="n">
-        <v>99036</v>
+        <v>79243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R107" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12591,32 +12591,32 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964647</v>
+        <v>130964641</v>
       </c>
       <c r="B109" t="n">
-        <v>92106</v>
+        <v>98930</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509741</v>
+        <v>509932</v>
       </c>
       <c r="R109" t="n">
-        <v>6718998</v>
+        <v>6719045</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964544</v>
+        <v>130964647</v>
       </c>
       <c r="B110" t="n">
-        <v>57073</v>
+        <v>92106</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>100138</v>
+        <v>658</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509543</v>
+        <v>509741</v>
       </c>
       <c r="R110" t="n">
-        <v>6718926</v>
+        <v>6718998</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12795,10 +12795,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964641</v>
+        <v>130964544</v>
       </c>
       <c r="B111" t="n">
-        <v>98930</v>
+        <v>57073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12806,21 +12806,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>219790</v>
+        <v>100138</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509932</v>
+        <v>509543</v>
       </c>
       <c r="R111" t="n">
-        <v>6719045</v>
+        <v>6718926</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964533</v>
+        <v>130964650</v>
       </c>
       <c r="B112" t="n">
-        <v>79243</v>
+        <v>92267</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509984</v>
+        <v>509694</v>
       </c>
       <c r="R112" t="n">
-        <v>6719028</v>
+        <v>6718936</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964645</v>
+        <v>130964533</v>
       </c>
       <c r="B113" t="n">
-        <v>99036</v>
+        <v>79243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509804</v>
+        <v>509984</v>
       </c>
       <c r="R113" t="n">
-        <v>6719024</v>
+        <v>6719028</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964650</v>
+        <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>92267</v>
+        <v>99036</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509694</v>
+        <v>509804</v>
       </c>
       <c r="R114" t="n">
-        <v>6718936</v>
+        <v>6719024</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -14223,32 +14223,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B125" t="n">
-        <v>98930</v>
+        <v>99013</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R125" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14325,32 +14325,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B126" t="n">
-        <v>99013</v>
+        <v>98930</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R126" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -13917,32 +13917,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B122" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R122" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14019,32 +14019,32 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B123" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R123" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,32 +11163,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964535</v>
+        <v>130964396</v>
       </c>
       <c r="B95" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509939</v>
+        <v>509365</v>
       </c>
       <c r="R95" t="n">
-        <v>6719007</v>
+        <v>6718883</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11228,17 +11228,17 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11265,7 +11265,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964529</v>
+        <v>130964535</v>
       </c>
       <c r="B96" t="n">
         <v>79243</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509588</v>
+        <v>509939</v>
       </c>
       <c r="R96" t="n">
-        <v>6719099</v>
+        <v>6719007</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11367,7 +11367,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964573</v>
+        <v>130964529</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509515</v>
+        <v>509588</v>
       </c>
       <c r="R97" t="n">
-        <v>6719063</v>
+        <v>6719099</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11469,32 +11469,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964396</v>
+        <v>130964573</v>
       </c>
       <c r="B98" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509365</v>
+        <v>509515</v>
       </c>
       <c r="R98" t="n">
-        <v>6718883</v>
+        <v>6719063</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964541</v>
+        <v>130964545</v>
       </c>
       <c r="B104" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509703</v>
+        <v>509535</v>
       </c>
       <c r="R104" t="n">
-        <v>6719018</v>
+        <v>6718925</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,32 +12183,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B105" t="n">
-        <v>57073</v>
+        <v>91808</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R105" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12591,32 +12591,32 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964641</v>
+        <v>130964647</v>
       </c>
       <c r="B109" t="n">
-        <v>98930</v>
+        <v>92106</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>219790</v>
+        <v>658</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509932</v>
+        <v>509741</v>
       </c>
       <c r="R109" t="n">
-        <v>6719045</v>
+        <v>6718998</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964647</v>
+        <v>130964641</v>
       </c>
       <c r="B110" t="n">
-        <v>92106</v>
+        <v>98930</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509741</v>
+        <v>509932</v>
       </c>
       <c r="R110" t="n">
-        <v>6718998</v>
+        <v>6719045</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13203,32 +13203,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>130964527</v>
+        <v>130964539</v>
       </c>
       <c r="B115" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13238,10 +13238,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>509597</v>
+        <v>509808</v>
       </c>
       <c r="R115" t="n">
-        <v>6719076</v>
+        <v>6719041</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13305,32 +13305,32 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>130964539</v>
+        <v>130964527</v>
       </c>
       <c r="B116" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13340,10 +13340,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>509808</v>
+        <v>509597</v>
       </c>
       <c r="R116" t="n">
-        <v>6719041</v>
+        <v>6719076</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B119" t="n">
-        <v>92267</v>
+        <v>98930</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R119" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B120" t="n">
-        <v>98930</v>
+        <v>92267</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R120" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13917,10 +13917,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964542</v>
+        <v>130964644</v>
       </c>
       <c r="B122" t="n">
-        <v>57073</v>
+        <v>98917</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13928,21 +13928,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100138</v>
+        <v>220093</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509635</v>
+        <v>509801</v>
       </c>
       <c r="R122" t="n">
-        <v>6718941</v>
+        <v>6719017</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14019,32 +14019,32 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B123" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R123" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14121,32 +14121,32 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964644</v>
+        <v>130964640</v>
       </c>
       <c r="B124" t="n">
-        <v>98917</v>
+        <v>57881</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220093</v>
+        <v>100049</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509801</v>
+        <v>509697</v>
       </c>
       <c r="R124" t="n">
-        <v>6719017</v>
+        <v>6719144</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14223,32 +14223,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B125" t="n">
-        <v>99013</v>
+        <v>98930</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R125" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14325,32 +14325,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B126" t="n">
-        <v>98930</v>
+        <v>99013</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R126" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B127" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R127" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B128" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R128" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B129" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R129" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B130" t="n">
-        <v>57073</v>
+        <v>91808</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R130" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,32 +11163,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964396</v>
+        <v>130964529</v>
       </c>
       <c r="B95" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509365</v>
+        <v>509588</v>
       </c>
       <c r="R95" t="n">
-        <v>6718883</v>
+        <v>6719099</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11228,17 +11228,17 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11367,7 +11367,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964529</v>
+        <v>130964573</v>
       </c>
       <c r="B97" t="n">
         <v>79243</v>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509588</v>
+        <v>509515</v>
       </c>
       <c r="R97" t="n">
-        <v>6719099</v>
+        <v>6719063</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11469,32 +11469,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964573</v>
+        <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509515</v>
+        <v>509365</v>
       </c>
       <c r="R98" t="n">
-        <v>6719063</v>
+        <v>6718883</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11673,10 +11673,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>130964531</v>
+        <v>130964543</v>
       </c>
       <c r="B100" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11684,21 +11684,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>509889</v>
+        <v>509622</v>
       </c>
       <c r="R100" t="n">
-        <v>6719134</v>
+        <v>6718933</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11775,10 +11775,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>130964543</v>
+        <v>130964531</v>
       </c>
       <c r="B101" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>509622</v>
+        <v>509889</v>
       </c>
       <c r="R101" t="n">
-        <v>6718933</v>
+        <v>6719134</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B104" t="n">
-        <v>57073</v>
+        <v>91808</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R104" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964541</v>
+        <v>130964537</v>
       </c>
       <c r="B105" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509703</v>
+        <v>509822</v>
       </c>
       <c r="R105" t="n">
-        <v>6719018</v>
+        <v>6718960</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,10 +12285,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964642</v>
+        <v>130964545</v>
       </c>
       <c r="B106" t="n">
-        <v>99036</v>
+        <v>57073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -12296,21 +12296,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221952</v>
+        <v>100138</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509917</v>
+        <v>509535</v>
       </c>
       <c r="R106" t="n">
-        <v>6719042</v>
+        <v>6718925</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964537</v>
+        <v>130964642</v>
       </c>
       <c r="B107" t="n">
-        <v>79243</v>
+        <v>99036</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509822</v>
+        <v>509917</v>
       </c>
       <c r="R107" t="n">
-        <v>6718960</v>
+        <v>6719042</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12489,32 +12489,32 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964574</v>
+        <v>130964544</v>
       </c>
       <c r="B108" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509667</v>
+        <v>509543</v>
       </c>
       <c r="R108" t="n">
-        <v>6719184</v>
+        <v>6718926</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964647</v>
+        <v>130964574</v>
       </c>
       <c r="B109" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509741</v>
+        <v>509667</v>
       </c>
       <c r="R109" t="n">
-        <v>6718998</v>
+        <v>6719184</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964641</v>
+        <v>130964647</v>
       </c>
       <c r="B110" t="n">
-        <v>98930</v>
+        <v>92106</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>219790</v>
+        <v>658</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509932</v>
+        <v>509741</v>
       </c>
       <c r="R110" t="n">
-        <v>6719045</v>
+        <v>6718998</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12795,10 +12795,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964544</v>
+        <v>130964641</v>
       </c>
       <c r="B111" t="n">
-        <v>57073</v>
+        <v>98930</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12806,21 +12806,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100138</v>
+        <v>219790</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509543</v>
+        <v>509932</v>
       </c>
       <c r="R111" t="n">
-        <v>6718926</v>
+        <v>6719045</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12890,39 +12890,39 @@
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964650</v>
+        <v>130964645</v>
       </c>
       <c r="B112" t="n">
-        <v>92267</v>
+        <v>99036</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509694</v>
+        <v>509804</v>
       </c>
       <c r="R112" t="n">
-        <v>6718936</v>
+        <v>6719024</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B114" t="n">
-        <v>99036</v>
+        <v>92267</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R114" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13203,32 +13203,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>130964539</v>
+        <v>130964527</v>
       </c>
       <c r="B115" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13238,10 +13238,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>509808</v>
+        <v>509597</v>
       </c>
       <c r="R115" t="n">
-        <v>6719041</v>
+        <v>6719076</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13305,32 +13305,32 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>130964527</v>
+        <v>130964539</v>
       </c>
       <c r="B116" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13340,10 +13340,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>509597</v>
+        <v>509808</v>
       </c>
       <c r="R116" t="n">
-        <v>6719076</v>
+        <v>6719041</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>98930</v>
+        <v>92267</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R119" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>92267</v>
+        <v>98930</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R120" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13917,32 +13917,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964644</v>
+        <v>130964640</v>
       </c>
       <c r="B122" t="n">
-        <v>98917</v>
+        <v>57881</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220093</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509801</v>
+        <v>509697</v>
       </c>
       <c r="R122" t="n">
-        <v>6719017</v>
+        <v>6719144</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
@@ -14121,32 +14121,32 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964640</v>
+        <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>57881</v>
+        <v>98917</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100049</v>
+        <v>220093</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509697</v>
+        <v>509801</v>
       </c>
       <c r="R124" t="n">
-        <v>6719144</v>
+        <v>6719017</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11265,7 +11265,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964535</v>
+        <v>130964573</v>
       </c>
       <c r="B96" t="n">
         <v>79243</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509939</v>
+        <v>509515</v>
       </c>
       <c r="R96" t="n">
-        <v>6719007</v>
+        <v>6719063</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11360,39 +11360,39 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964573</v>
+        <v>130964396</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509515</v>
+        <v>509365</v>
       </c>
       <c r="R97" t="n">
-        <v>6719063</v>
+        <v>6718883</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11432,17 +11432,17 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11462,39 +11462,39 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964396</v>
+        <v>130964535</v>
       </c>
       <c r="B98" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509365</v>
+        <v>509939</v>
       </c>
       <c r="R98" t="n">
-        <v>6718883</v>
+        <v>6719007</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11673,10 +11673,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>130964543</v>
+        <v>130964531</v>
       </c>
       <c r="B100" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11684,21 +11684,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>509622</v>
+        <v>509889</v>
       </c>
       <c r="R100" t="n">
-        <v>6718933</v>
+        <v>6719134</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11775,10 +11775,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>130964531</v>
+        <v>130964543</v>
       </c>
       <c r="B101" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>509889</v>
+        <v>509622</v>
       </c>
       <c r="R101" t="n">
-        <v>6719134</v>
+        <v>6718933</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11877,10 +11877,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R102" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B103" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R103" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12183,32 +12183,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964537</v>
+        <v>130964545</v>
       </c>
       <c r="B105" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509822</v>
+        <v>509535</v>
       </c>
       <c r="R105" t="n">
-        <v>6718960</v>
+        <v>6718925</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964545</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509535</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6718925</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964574</v>
+        <v>130964647</v>
       </c>
       <c r="B109" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509667</v>
+        <v>509741</v>
       </c>
       <c r="R109" t="n">
-        <v>6719184</v>
+        <v>6718998</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12693,10 +12693,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964647</v>
+        <v>130964574</v>
       </c>
       <c r="B110" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12704,21 +12704,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509741</v>
+        <v>509667</v>
       </c>
       <c r="R110" t="n">
-        <v>6718998</v>
+        <v>6719184</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
@@ -12890,39 +12890,39 @@
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B112" t="n">
-        <v>99036</v>
+        <v>92267</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R112" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964650</v>
+        <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>92267</v>
+        <v>99036</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509694</v>
+        <v>509804</v>
       </c>
       <c r="R114" t="n">
-        <v>6718936</v>
+        <v>6719024</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B119" t="n">
-        <v>92267</v>
+        <v>98930</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R119" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B120" t="n">
-        <v>98930</v>
+        <v>92267</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R120" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13917,32 +13917,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964640</v>
+        <v>130964644</v>
       </c>
       <c r="B122" t="n">
-        <v>57881</v>
+        <v>98917</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100049</v>
+        <v>220093</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509697</v>
+        <v>509801</v>
       </c>
       <c r="R122" t="n">
-        <v>6719144</v>
+        <v>6719017</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14012,39 +14012,39 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B123" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R123" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964644</v>
+        <v>130964542</v>
       </c>
       <c r="B124" t="n">
-        <v>98917</v>
+        <v>57073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220093</v>
+        <v>100138</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509801</v>
+        <v>509635</v>
       </c>
       <c r="R124" t="n">
-        <v>6719017</v>
+        <v>6718941</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
@@ -14420,39 +14420,39 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B127" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R127" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B128" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R128" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>57073</v>
+        <v>91808</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R129" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14726,39 +14726,39 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B130" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R130" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11360,7 +11360,7 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11877,10 +11877,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B102" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R102" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B103" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R103" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12081,10 +12081,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964541</v>
+        <v>130964537</v>
       </c>
       <c r="B104" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -12092,21 +12092,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509703</v>
+        <v>509822</v>
       </c>
       <c r="R104" t="n">
-        <v>6719018</v>
+        <v>6718960</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964545</v>
+        <v>130964642</v>
       </c>
       <c r="B105" t="n">
-        <v>57073</v>
+        <v>99036</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100138</v>
+        <v>221952</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509535</v>
+        <v>509917</v>
       </c>
       <c r="R105" t="n">
-        <v>6718925</v>
+        <v>6719042</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,10 +12285,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964537</v>
+        <v>130964541</v>
       </c>
       <c r="B106" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -12296,21 +12296,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509822</v>
+        <v>509703</v>
       </c>
       <c r="R106" t="n">
-        <v>6718960</v>
+        <v>6719018</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,10 +12387,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964642</v>
+        <v>130964545</v>
       </c>
       <c r="B107" t="n">
-        <v>99036</v>
+        <v>57073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12398,21 +12398,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221952</v>
+        <v>100138</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509917</v>
+        <v>509535</v>
       </c>
       <c r="R107" t="n">
-        <v>6719042</v>
+        <v>6718925</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12489,32 +12489,32 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964544</v>
+        <v>130964647</v>
       </c>
       <c r="B108" t="n">
-        <v>57073</v>
+        <v>92106</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100138</v>
+        <v>658</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509543</v>
+        <v>509741</v>
       </c>
       <c r="R108" t="n">
-        <v>6718926</v>
+        <v>6718998</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964647</v>
+        <v>130964574</v>
       </c>
       <c r="B109" t="n">
-        <v>92106</v>
+        <v>79243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509741</v>
+        <v>509667</v>
       </c>
       <c r="R109" t="n">
-        <v>6718998</v>
+        <v>6719184</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964574</v>
+        <v>130964544</v>
       </c>
       <c r="B110" t="n">
-        <v>79243</v>
+        <v>57073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509667</v>
+        <v>509543</v>
       </c>
       <c r="R110" t="n">
-        <v>6719184</v>
+        <v>6718926</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>98930</v>
+        <v>92267</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R119" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>92267</v>
+        <v>98930</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R120" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
@@ -14420,39 +14420,39 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79243</v>
+        <v>92503</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92503</v>
+        <v>79243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,7 +11163,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964529</v>
+        <v>130964535</v>
       </c>
       <c r="B95" t="n">
         <v>79243</v>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509588</v>
+        <v>509939</v>
       </c>
       <c r="R95" t="n">
-        <v>6719099</v>
+        <v>6719007</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11265,7 +11265,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964573</v>
+        <v>130964529</v>
       </c>
       <c r="B96" t="n">
         <v>79243</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509515</v>
+        <v>509588</v>
       </c>
       <c r="R96" t="n">
-        <v>6719063</v>
+        <v>6719099</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11367,32 +11367,32 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964396</v>
+        <v>130964573</v>
       </c>
       <c r="B97" t="n">
-        <v>98930</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509365</v>
+        <v>509515</v>
       </c>
       <c r="R97" t="n">
-        <v>6718883</v>
+        <v>6719063</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11432,17 +11432,17 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11469,32 +11469,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964535</v>
+        <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>98930</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509939</v>
+        <v>509365</v>
       </c>
       <c r="R98" t="n">
-        <v>6719007</v>
+        <v>6718883</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12081,10 +12081,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964537</v>
+        <v>130964541</v>
       </c>
       <c r="B104" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -12092,21 +12092,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509822</v>
+        <v>509703</v>
       </c>
       <c r="R104" t="n">
-        <v>6718960</v>
+        <v>6719018</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964642</v>
+        <v>130964545</v>
       </c>
       <c r="B105" t="n">
-        <v>99036</v>
+        <v>57073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>221952</v>
+        <v>100138</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509917</v>
+        <v>509535</v>
       </c>
       <c r="R105" t="n">
-        <v>6719042</v>
+        <v>6718925</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B106" t="n">
-        <v>91808</v>
+        <v>99036</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R106" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964545</v>
+        <v>130964537</v>
       </c>
       <c r="B107" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509535</v>
+        <v>509822</v>
       </c>
       <c r="R107" t="n">
-        <v>6718925</v>
+        <v>6718960</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12489,32 +12489,32 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964647</v>
+        <v>130964641</v>
       </c>
       <c r="B108" t="n">
-        <v>92106</v>
+        <v>98930</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509741</v>
+        <v>509932</v>
       </c>
       <c r="R108" t="n">
-        <v>6718998</v>
+        <v>6719045</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964574</v>
+        <v>130964647</v>
       </c>
       <c r="B109" t="n">
-        <v>79243</v>
+        <v>92106</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509667</v>
+        <v>509741</v>
       </c>
       <c r="R109" t="n">
-        <v>6719184</v>
+        <v>6718998</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964544</v>
+        <v>130964574</v>
       </c>
       <c r="B110" t="n">
-        <v>57073</v>
+        <v>79243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509543</v>
+        <v>509667</v>
       </c>
       <c r="R110" t="n">
-        <v>6718926</v>
+        <v>6719184</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12795,10 +12795,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964641</v>
+        <v>130964544</v>
       </c>
       <c r="B111" t="n">
-        <v>98930</v>
+        <v>57073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12806,21 +12806,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>219790</v>
+        <v>100138</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509932</v>
+        <v>509543</v>
       </c>
       <c r="R111" t="n">
-        <v>6719045</v>
+        <v>6718926</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B113" t="n">
-        <v>79243</v>
+        <v>99036</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R113" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964645</v>
+        <v>130964533</v>
       </c>
       <c r="B114" t="n">
-        <v>99036</v>
+        <v>79243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509804</v>
+        <v>509984</v>
       </c>
       <c r="R114" t="n">
-        <v>6719024</v>
+        <v>6719028</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B129" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R129" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B130" t="n">
-        <v>57073</v>
+        <v>91808</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R130" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11166,7 +11166,7 @@
         <v>130964535</v>
       </c>
       <c r="B95" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>130964529</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>130964573</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Anders Esplund, Enviro Planning, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11472,7 +11472,7 @@
         <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>130964540</v>
       </c>
       <c r="B99" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11673,10 +11673,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>130964531</v>
+        <v>130964543</v>
       </c>
       <c r="B100" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11684,21 +11684,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>509889</v>
+        <v>509622</v>
       </c>
       <c r="R100" t="n">
-        <v>6719134</v>
+        <v>6718933</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11775,10 +11775,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>130964543</v>
+        <v>130964531</v>
       </c>
       <c r="B101" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>509622</v>
+        <v>509889</v>
       </c>
       <c r="R101" t="n">
-        <v>6718933</v>
+        <v>6719134</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11880,7 +11880,7 @@
         <v>130964526</v>
       </c>
       <c r="B102" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964541</v>
+        <v>130964545</v>
       </c>
       <c r="B104" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509703</v>
+        <v>509535</v>
       </c>
       <c r="R104" t="n">
-        <v>6719018</v>
+        <v>6718925</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,32 +12183,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B105" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R105" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>99036</v>
+        <v>79244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964537</v>
+        <v>130964642</v>
       </c>
       <c r="B107" t="n">
-        <v>79243</v>
+        <v>99037</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509822</v>
+        <v>509917</v>
       </c>
       <c r="R107" t="n">
-        <v>6718960</v>
+        <v>6719042</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12492,7 +12492,7 @@
         <v>130964641</v>
       </c>
       <c r="B108" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964647</v>
+        <v>130964574</v>
       </c>
       <c r="B109" t="n">
-        <v>92106</v>
+        <v>79244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509741</v>
+        <v>509667</v>
       </c>
       <c r="R109" t="n">
-        <v>6718998</v>
+        <v>6719184</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12693,10 +12693,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964574</v>
+        <v>130964647</v>
       </c>
       <c r="B110" t="n">
-        <v>79243</v>
+        <v>92107</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12704,21 +12704,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509667</v>
+        <v>509741</v>
       </c>
       <c r="R110" t="n">
-        <v>6719184</v>
+        <v>6718998</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964650</v>
+        <v>130964533</v>
       </c>
       <c r="B112" t="n">
-        <v>92267</v>
+        <v>79244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509694</v>
+        <v>509984</v>
       </c>
       <c r="R112" t="n">
-        <v>6718936</v>
+        <v>6719028</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B113" t="n">
-        <v>99036</v>
+        <v>92268</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R113" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>79243</v>
+        <v>99037</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R114" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13206,7 +13206,7 @@
         <v>130964527</v>
       </c>
       <c r="B115" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>130964539</v>
       </c>
       <c r="B116" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>130964534</v>
       </c>
       <c r="B117" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>130964651</v>
       </c>
       <c r="B118" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>98930</v>
+        <v>98931</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -13818,7 +13818,7 @@
         <v>130964536</v>
       </c>
       <c r="B121" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -13917,32 +13917,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964644</v>
+        <v>130964640</v>
       </c>
       <c r="B122" t="n">
-        <v>98917</v>
+        <v>57881</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220093</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509801</v>
+        <v>509697</v>
       </c>
       <c r="R122" t="n">
-        <v>6719017</v>
+        <v>6719144</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14019,32 +14019,32 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B123" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R123" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964542</v>
+        <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>57073</v>
+        <v>98918</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100138</v>
+        <v>220093</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509635</v>
+        <v>509801</v>
       </c>
       <c r="R124" t="n">
-        <v>6718941</v>
+        <v>6719017</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14223,32 +14223,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B125" t="n">
-        <v>98930</v>
+        <v>99014</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R125" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14325,32 +14325,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B126" t="n">
-        <v>99013</v>
+        <v>98931</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R126" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14430,7 +14430,7 @@
         <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>92503</v>
+        <v>92504</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R129" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B130" t="n">
-        <v>91808</v>
+        <v>57073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R130" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -14838,7 +14838,7 @@
         <v>130964532</v>
       </c>
       <c r="B131" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,7 +11163,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964535</v>
+        <v>130964573</v>
       </c>
       <c r="B95" t="n">
         <v>79244</v>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509939</v>
+        <v>509515</v>
       </c>
       <c r="R95" t="n">
-        <v>6719007</v>
+        <v>6719063</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11265,7 +11265,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964529</v>
+        <v>130964535</v>
       </c>
       <c r="B96" t="n">
         <v>79244</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509588</v>
+        <v>509939</v>
       </c>
       <c r="R96" t="n">
-        <v>6719099</v>
+        <v>6719007</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11360,14 +11360,14 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964573</v>
+        <v>130964529</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509515</v>
+        <v>509588</v>
       </c>
       <c r="R97" t="n">
-        <v>6719063</v>
+        <v>6719099</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Anders Esplund, Enviro Planning, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11666,17 +11666,17 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>130964543</v>
+        <v>130964531</v>
       </c>
       <c r="B100" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11684,21 +11684,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>509622</v>
+        <v>509889</v>
       </c>
       <c r="R100" t="n">
-        <v>6718933</v>
+        <v>6719134</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11768,17 +11768,17 @@
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>130964531</v>
+        <v>130964543</v>
       </c>
       <c r="B101" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>509889</v>
+        <v>509622</v>
       </c>
       <c r="R101" t="n">
-        <v>6719134</v>
+        <v>6718933</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11870,17 +11870,17 @@
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R102" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11972,17 +11972,17 @@
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B103" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R103" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12074,39 +12074,39 @@
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B104" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R104" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12176,17 +12176,17 @@
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964541</v>
+        <v>130964537</v>
       </c>
       <c r="B105" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509703</v>
+        <v>509822</v>
       </c>
       <c r="R105" t="n">
-        <v>6719018</v>
+        <v>6718960</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12278,39 +12278,39 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964537</v>
+        <v>130964545</v>
       </c>
       <c r="B106" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509822</v>
+        <v>509535</v>
       </c>
       <c r="R106" t="n">
-        <v>6718960</v>
+        <v>6718925</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
@@ -12489,10 +12489,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964641</v>
+        <v>130964544</v>
       </c>
       <c r="B108" t="n">
-        <v>98931</v>
+        <v>57073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12500,21 +12500,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>219790</v>
+        <v>100138</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509932</v>
+        <v>509543</v>
       </c>
       <c r="R108" t="n">
-        <v>6719045</v>
+        <v>6718926</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12584,39 +12584,39 @@
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964574</v>
+        <v>130964641</v>
       </c>
       <c r="B109" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509667</v>
+        <v>509932</v>
       </c>
       <c r="R109" t="n">
-        <v>6719184</v>
+        <v>6719045</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12795,32 +12795,32 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964544</v>
+        <v>130964574</v>
       </c>
       <c r="B111" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509543</v>
+        <v>509667</v>
       </c>
       <c r="R111" t="n">
-        <v>6718926</v>
+        <v>6719184</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B112" t="n">
-        <v>79244</v>
+        <v>99037</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R112" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964650</v>
+        <v>130964533</v>
       </c>
       <c r="B113" t="n">
-        <v>92268</v>
+        <v>79244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509694</v>
+        <v>509984</v>
       </c>
       <c r="R113" t="n">
-        <v>6718936</v>
+        <v>6719028</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13094,39 +13094,39 @@
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B114" t="n">
-        <v>99037</v>
+        <v>92268</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R114" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B119" t="n">
-        <v>92268</v>
+        <v>98931</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R119" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B120" t="n">
-        <v>98931</v>
+        <v>92268</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R120" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13910,39 +13910,39 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964640</v>
+        <v>130964644</v>
       </c>
       <c r="B122" t="n">
-        <v>57881</v>
+        <v>98918</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100049</v>
+        <v>220093</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509697</v>
+        <v>509801</v>
       </c>
       <c r="R122" t="n">
-        <v>6719144</v>
+        <v>6719017</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14019,32 +14019,32 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B123" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R123" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964644</v>
+        <v>130964542</v>
       </c>
       <c r="B124" t="n">
-        <v>98918</v>
+        <v>57073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220093</v>
+        <v>100138</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509801</v>
+        <v>509635</v>
       </c>
       <c r="R124" t="n">
-        <v>6719017</v>
+        <v>6718941</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14216,39 +14216,39 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B125" t="n">
-        <v>99014</v>
+        <v>98931</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R125" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14325,32 +14325,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B126" t="n">
-        <v>98931</v>
+        <v>99014</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R126" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
@@ -14624,7 +14624,7 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
@@ -14930,7 +14930,7 @@
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,7 +11163,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964573</v>
+        <v>130964535</v>
       </c>
       <c r="B95" t="n">
         <v>79244</v>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509515</v>
+        <v>509939</v>
       </c>
       <c r="R95" t="n">
-        <v>6719063</v>
+        <v>6719007</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11238,7 +11238,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11265,7 +11265,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964535</v>
+        <v>130964529</v>
       </c>
       <c r="B96" t="n">
         <v>79244</v>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509939</v>
+        <v>509588</v>
       </c>
       <c r="R96" t="n">
-        <v>6719007</v>
+        <v>6719099</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11360,14 +11360,14 @@
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964529</v>
+        <v>130964573</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509588</v>
+        <v>509515</v>
       </c>
       <c r="R97" t="n">
-        <v>6719099</v>
+        <v>6719063</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
@@ -11972,7 +11972,7 @@
       </c>
       <c r="AX102" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY102" t="inlineStr"/>
@@ -12074,39 +12074,39 @@
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B104" t="n">
-        <v>91809</v>
+        <v>99037</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R104" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
@@ -12278,39 +12278,39 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B106" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R106" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12380,17 +12380,17 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964642</v>
+        <v>130964545</v>
       </c>
       <c r="B107" t="n">
-        <v>99037</v>
+        <v>57073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12398,21 +12398,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>221952</v>
+        <v>100138</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509917</v>
+        <v>509535</v>
       </c>
       <c r="R107" t="n">
-        <v>6719042</v>
+        <v>6718925</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964645</v>
+        <v>130964533</v>
       </c>
       <c r="B112" t="n">
-        <v>99037</v>
+        <v>79244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509804</v>
+        <v>509984</v>
       </c>
       <c r="R112" t="n">
-        <v>6719024</v>
+        <v>6719028</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B113" t="n">
-        <v>79244</v>
+        <v>99037</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R113" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13094,7 +13094,7 @@
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY113" t="inlineStr"/>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13502,7 +13502,7 @@
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY117" t="inlineStr"/>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>98931</v>
+        <v>92268</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R119" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>92268</v>
+        <v>98931</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R120" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13910,17 +13910,17 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964644</v>
+        <v>130964542</v>
       </c>
       <c r="B122" t="n">
-        <v>98918</v>
+        <v>57073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13928,21 +13928,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220093</v>
+        <v>100138</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509801</v>
+        <v>509635</v>
       </c>
       <c r="R122" t="n">
-        <v>6719017</v>
+        <v>6718941</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964542</v>
+        <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>57073</v>
+        <v>98918</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100138</v>
+        <v>220093</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509635</v>
+        <v>509801</v>
       </c>
       <c r="R124" t="n">
-        <v>6718941</v>
+        <v>6719017</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B127" t="n">
-        <v>92504</v>
+        <v>79244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R127" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14522,39 +14522,39 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B128" t="n">
-        <v>79244</v>
+        <v>92504</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R128" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14624,39 +14624,39 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B129" t="n">
-        <v>91809</v>
+        <v>57073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R129" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B130" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R130" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11265,32 +11265,32 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964529</v>
+        <v>130964396</v>
       </c>
       <c r="B96" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509588</v>
+        <v>509365</v>
       </c>
       <c r="R96" t="n">
-        <v>6719099</v>
+        <v>6718883</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11330,17 +11330,17 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11367,7 +11367,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964573</v>
+        <v>130964529</v>
       </c>
       <c r="B97" t="n">
         <v>79244</v>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509515</v>
+        <v>509588</v>
       </c>
       <c r="R97" t="n">
-        <v>6719063</v>
+        <v>6719099</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11469,32 +11469,32 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964396</v>
+        <v>130964573</v>
       </c>
       <c r="B98" t="n">
-        <v>98931</v>
+        <v>79244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509365</v>
+        <v>509515</v>
       </c>
       <c r="R98" t="n">
-        <v>6718883</v>
+        <v>6719063</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11877,10 +11877,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B102" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R102" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B103" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R103" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12183,10 +12183,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964537</v>
+        <v>130964541</v>
       </c>
       <c r="B105" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -12194,21 +12194,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509822</v>
+        <v>509703</v>
       </c>
       <c r="R105" t="n">
-        <v>6718960</v>
+        <v>6719018</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,10 +12285,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964541</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -12296,21 +12296,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509703</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6719018</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12489,32 +12489,32 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964544</v>
+        <v>130964574</v>
       </c>
       <c r="B108" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509543</v>
+        <v>509667</v>
       </c>
       <c r="R108" t="n">
-        <v>6718926</v>
+        <v>6719184</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AC108" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -12591,10 +12591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964641</v>
+        <v>130964544</v>
       </c>
       <c r="B109" t="n">
-        <v>98931</v>
+        <v>57073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -12602,21 +12602,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>219790</v>
+        <v>100138</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509932</v>
+        <v>509543</v>
       </c>
       <c r="R109" t="n">
-        <v>6719045</v>
+        <v>6718926</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12795,32 +12795,32 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964574</v>
+        <v>130964641</v>
       </c>
       <c r="B111" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509667</v>
+        <v>509932</v>
       </c>
       <c r="R111" t="n">
-        <v>6719184</v>
+        <v>6719045</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964533</v>
+        <v>130964650</v>
       </c>
       <c r="B112" t="n">
-        <v>79244</v>
+        <v>92268</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509984</v>
+        <v>509694</v>
       </c>
       <c r="R112" t="n">
-        <v>6719028</v>
+        <v>6718936</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964645</v>
+        <v>130964533</v>
       </c>
       <c r="B113" t="n">
-        <v>99037</v>
+        <v>79244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509804</v>
+        <v>509984</v>
       </c>
       <c r="R113" t="n">
-        <v>6719024</v>
+        <v>6719028</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964650</v>
+        <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>92268</v>
+        <v>99037</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509694</v>
+        <v>509804</v>
       </c>
       <c r="R114" t="n">
-        <v>6718936</v>
+        <v>6719024</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B119" t="n">
-        <v>92268</v>
+        <v>98931</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R119" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B120" t="n">
-        <v>98931</v>
+        <v>92268</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R120" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13917,10 +13917,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964542</v>
+        <v>130964644</v>
       </c>
       <c r="B122" t="n">
-        <v>57073</v>
+        <v>98918</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13928,21 +13928,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100138</v>
+        <v>220093</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509635</v>
+        <v>509801</v>
       </c>
       <c r="R122" t="n">
-        <v>6718941</v>
+        <v>6719017</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964644</v>
+        <v>130964542</v>
       </c>
       <c r="B124" t="n">
-        <v>98918</v>
+        <v>57073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220093</v>
+        <v>100138</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509801</v>
+        <v>509635</v>
       </c>
       <c r="R124" t="n">
-        <v>6719017</v>
+        <v>6718941</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14223,32 +14223,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B125" t="n">
-        <v>98931</v>
+        <v>99014</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R125" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14325,32 +14325,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B126" t="n">
-        <v>99014</v>
+        <v>98931</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R126" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14427,32 +14427,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79244</v>
+        <v>92504</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14529,32 +14529,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92504</v>
+        <v>79244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,32 +11163,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964535</v>
+        <v>130964396</v>
       </c>
       <c r="B95" t="n">
-        <v>79244</v>
+        <v>98931</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509939</v>
+        <v>509365</v>
       </c>
       <c r="R95" t="n">
-        <v>6719007</v>
+        <v>6718883</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11228,17 +11228,17 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11258,39 +11258,39 @@
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>130964396</v>
+        <v>130964535</v>
       </c>
       <c r="B96" t="n">
-        <v>98931</v>
+        <v>79244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11300,10 +11300,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>509365</v>
+        <v>509939</v>
       </c>
       <c r="R96" t="n">
-        <v>6718883</v>
+        <v>6719007</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11330,17 +11330,17 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11877,10 +11877,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B102" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R102" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B103" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R103" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964642</v>
+        <v>130964541</v>
       </c>
       <c r="B104" t="n">
-        <v>99037</v>
+        <v>91809</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509917</v>
+        <v>509703</v>
       </c>
       <c r="R104" t="n">
-        <v>6719042</v>
+        <v>6719018</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12183,32 +12183,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964541</v>
+        <v>130964545</v>
       </c>
       <c r="B105" t="n">
-        <v>91809</v>
+        <v>57073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509703</v>
+        <v>509535</v>
       </c>
       <c r="R105" t="n">
-        <v>6719018</v>
+        <v>6718925</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964537</v>
+        <v>130964642</v>
       </c>
       <c r="B106" t="n">
-        <v>79244</v>
+        <v>99037</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509822</v>
+        <v>509917</v>
       </c>
       <c r="R106" t="n">
-        <v>6718960</v>
+        <v>6719042</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964545</v>
+        <v>130964537</v>
       </c>
       <c r="B107" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509535</v>
+        <v>509822</v>
       </c>
       <c r="R107" t="n">
-        <v>6718925</v>
+        <v>6718960</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12489,10 +12489,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964574</v>
+        <v>130964647</v>
       </c>
       <c r="B108" t="n">
-        <v>79244</v>
+        <v>92107</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12500,21 +12500,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509667</v>
+        <v>509741</v>
       </c>
       <c r="R108" t="n">
-        <v>6719184</v>
+        <v>6718998</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12591,32 +12591,32 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964544</v>
+        <v>130964574</v>
       </c>
       <c r="B109" t="n">
-        <v>57073</v>
+        <v>79244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509543</v>
+        <v>509667</v>
       </c>
       <c r="R109" t="n">
-        <v>6718926</v>
+        <v>6719184</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12693,32 +12693,32 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>130964647</v>
+        <v>130964641</v>
       </c>
       <c r="B110" t="n">
-        <v>92107</v>
+        <v>98931</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>509741</v>
+        <v>509932</v>
       </c>
       <c r="R110" t="n">
-        <v>6718998</v>
+        <v>6719045</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -12795,10 +12795,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964641</v>
+        <v>130964544</v>
       </c>
       <c r="B111" t="n">
-        <v>98931</v>
+        <v>57073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12806,21 +12806,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>219790</v>
+        <v>100138</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509932</v>
+        <v>509543</v>
       </c>
       <c r="R111" t="n">
-        <v>6719045</v>
+        <v>6718926</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13917,10 +13917,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964644</v>
+        <v>130964542</v>
       </c>
       <c r="B122" t="n">
-        <v>98918</v>
+        <v>57073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -13928,21 +13928,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220093</v>
+        <v>100138</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509801</v>
+        <v>509635</v>
       </c>
       <c r="R122" t="n">
-        <v>6719017</v>
+        <v>6718941</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Sparsamma förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14121,10 +14121,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>130964542</v>
+        <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>57073</v>
+        <v>98918</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14132,21 +14132,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100138</v>
+        <v>220093</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14156,10 +14156,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>509635</v>
+        <v>509801</v>
       </c>
       <c r="R124" t="n">
-        <v>6718941</v>
+        <v>6719017</v>
       </c>
       <c r="S124" t="n">
         <v>15</v>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Sparsamma förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>57073</v>
+        <v>91809</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R129" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B130" t="n">
-        <v>91809</v>
+        <v>57073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R130" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11163,32 +11163,32 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>130964396</v>
+        <v>130964529</v>
       </c>
       <c r="B95" t="n">
-        <v>98931</v>
+        <v>79245</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11198,10 +11198,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>509365</v>
+        <v>509588</v>
       </c>
       <c r="R95" t="n">
-        <v>6718883</v>
+        <v>6719099</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11228,17 +11228,17 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>Betydande förekomster . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
@@ -11268,7 +11268,7 @@
         <v>130964535</v>
       </c>
       <c r="B96" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11367,10 +11367,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>130964529</v>
+        <v>130964573</v>
       </c>
       <c r="B97" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>509588</v>
+        <v>509515</v>
       </c>
       <c r="R97" t="n">
-        <v>6719099</v>
+        <v>6719063</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11462,39 +11462,39 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>130964573</v>
+        <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>79244</v>
+        <v>98932</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11504,10 +11504,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>509515</v>
+        <v>509365</v>
       </c>
       <c r="R98" t="n">
-        <v>6719063</v>
+        <v>6718883</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11534,17 +11534,17 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Betydande förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
@@ -11574,7 +11574,7 @@
         <v>130964540</v>
       </c>
       <c r="B99" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
         <v>130964531</v>
       </c>
       <c r="B100" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11870,17 +11870,17 @@
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B102" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R102" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B103" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R103" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12074,39 +12074,39 @@
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B104" t="n">
-        <v>91809</v>
+        <v>99038</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R104" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12278,39 +12278,39 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>99037</v>
+        <v>79245</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12380,17 +12380,17 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964537</v>
+        <v>130964541</v>
       </c>
       <c r="B107" t="n">
-        <v>79244</v>
+        <v>91810</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -12398,21 +12398,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509822</v>
+        <v>509703</v>
       </c>
       <c r="R107" t="n">
-        <v>6718960</v>
+        <v>6719018</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12482,17 +12482,17 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130964647</v>
+        <v>130964574</v>
       </c>
       <c r="B108" t="n">
-        <v>92107</v>
+        <v>79245</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -12500,21 +12500,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12524,10 +12524,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>509741</v>
+        <v>509667</v>
       </c>
       <c r="R108" t="n">
-        <v>6718998</v>
+        <v>6719184</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -12584,39 +12584,39 @@
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>130964574</v>
+        <v>130964544</v>
       </c>
       <c r="B109" t="n">
-        <v>79244</v>
+        <v>57073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12626,10 +12626,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>509667</v>
+        <v>509543</v>
       </c>
       <c r="R109" t="n">
-        <v>6719184</v>
+        <v>6718926</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AC109" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -12686,7 +12686,7 @@
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
         <v>130964641</v>
       </c>
       <c r="B110" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12795,32 +12795,32 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>130964544</v>
+        <v>130964647</v>
       </c>
       <c r="B111" t="n">
-        <v>57073</v>
+        <v>92108</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100138</v>
+        <v>658</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12830,10 +12830,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>509543</v>
+        <v>509741</v>
       </c>
       <c r="R111" t="n">
-        <v>6718926</v>
+        <v>6718998</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -12870,7 +12870,7 @@
       </c>
       <c r="AC111" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD111" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964650</v>
+        <v>130964533</v>
       </c>
       <c r="B112" t="n">
-        <v>92268</v>
+        <v>79245</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509694</v>
+        <v>509984</v>
       </c>
       <c r="R112" t="n">
-        <v>6718936</v>
+        <v>6719028</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964533</v>
+        <v>130964650</v>
       </c>
       <c r="B113" t="n">
-        <v>79244</v>
+        <v>92269</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509984</v>
+        <v>509694</v>
       </c>
       <c r="R113" t="n">
-        <v>6719028</v>
+        <v>6718936</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13104,7 +13104,7 @@
         <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>99037</v>
+        <v>99038</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -13203,32 +13203,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>130964527</v>
+        <v>130964539</v>
       </c>
       <c r="B115" t="n">
-        <v>79244</v>
+        <v>98932</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13238,10 +13238,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>509597</v>
+        <v>509808</v>
       </c>
       <c r="R115" t="n">
-        <v>6719076</v>
+        <v>6719041</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13298,39 +13298,39 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>130964539</v>
+        <v>130964527</v>
       </c>
       <c r="B116" t="n">
-        <v>98931</v>
+        <v>79245</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13340,10 +13340,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>509808</v>
+        <v>509597</v>
       </c>
       <c r="R116" t="n">
-        <v>6719041</v>
+        <v>6719076</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Anders Esplund, Enviro Planning, Sofia Berg, Pia Edfors, Anna Sjövall</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13410,7 +13410,7 @@
         <v>130964534</v>
       </c>
       <c r="B117" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>130964651</v>
       </c>
       <c r="B118" t="n">
-        <v>98931</v>
+        <v>98932</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -13611,32 +13611,32 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>130964649</v>
+        <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>98931</v>
+        <v>92269</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>219790</v>
+        <v>1209</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>509705</v>
+        <v>509744</v>
       </c>
       <c r="R119" t="n">
-        <v>6718923</v>
+        <v>6718982</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -13686,7 +13686,7 @@
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -13713,32 +13713,32 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>130964648</v>
+        <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>92268</v>
+        <v>98932</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1209</v>
+        <v>219790</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13748,10 +13748,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>509744</v>
+        <v>509705</v>
       </c>
       <c r="R120" t="n">
-        <v>6718982</v>
+        <v>6718923</v>
       </c>
       <c r="S120" t="n">
         <v>15</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD120" t="b">
@@ -13818,7 +13818,7 @@
         <v>130964536</v>
       </c>
       <c r="B121" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -13910,39 +13910,39 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Sofia Berg, Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B122" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R122" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14019,32 +14019,32 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B123" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R123" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
@@ -14124,7 +14124,7 @@
         <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>98918</v>
+        <v>98919</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14223,32 +14223,32 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>130964390</v>
+        <v>130964643</v>
       </c>
       <c r="B125" t="n">
-        <v>99014</v>
+        <v>98932</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -14258,10 +14258,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>509475</v>
+        <v>509829</v>
       </c>
       <c r="R125" t="n">
-        <v>6718881</v>
+        <v>6719000</v>
       </c>
       <c r="S125" t="n">
         <v>15</v>
@@ -14288,17 +14288,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
+          <t>Måttlig förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -14318,39 +14318,39 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>130964643</v>
+        <v>130964390</v>
       </c>
       <c r="B126" t="n">
-        <v>98931</v>
+        <v>99015</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14360,10 +14360,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>509829</v>
+        <v>509475</v>
       </c>
       <c r="R126" t="n">
-        <v>6719000</v>
+        <v>6718881</v>
       </c>
       <c r="S126" t="n">
         <v>15</v>
@@ -14390,17 +14390,17 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>Måttlig förekomst . inventering åt vasa vind</t>
+          <t>Måttliga förekomster, Ca 10-15 plantor . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -14420,39 +14420,39 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B127" t="n">
-        <v>92504</v>
+        <v>79245</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R127" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14522,39 +14522,39 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B128" t="n">
-        <v>79244</v>
+        <v>92505</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R128" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14624,39 +14624,39 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B129" t="n">
-        <v>91809</v>
+        <v>57073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R129" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B130" t="n">
-        <v>57073</v>
+        <v>91810</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R130" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -14838,7 +14838,7 @@
         <v>130964532</v>
       </c>
       <c r="B131" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11673,10 +11673,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>130964531</v>
+        <v>130964543</v>
       </c>
       <c r="B100" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -11684,21 +11684,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11708,10 +11708,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>509889</v>
+        <v>509622</v>
       </c>
       <c r="R100" t="n">
-        <v>6719134</v>
+        <v>6718933</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11768,17 +11768,17 @@
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>130964543</v>
+        <v>130964531</v>
       </c>
       <c r="B101" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -11786,21 +11786,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>509622</v>
+        <v>509889</v>
       </c>
       <c r="R101" t="n">
-        <v>6718933</v>
+        <v>6719134</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -11850,7 +11850,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY101" t="inlineStr"/>
@@ -12183,32 +12183,32 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964545</v>
+        <v>130964537</v>
       </c>
       <c r="B105" t="n">
-        <v>57073</v>
+        <v>79245</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509535</v>
+        <v>509822</v>
       </c>
       <c r="R105" t="n">
-        <v>6718925</v>
+        <v>6718960</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,10 +12285,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964537</v>
+        <v>130964541</v>
       </c>
       <c r="B106" t="n">
-        <v>79245</v>
+        <v>91810</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -12296,21 +12296,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509822</v>
+        <v>509703</v>
       </c>
       <c r="R106" t="n">
-        <v>6718960</v>
+        <v>6719018</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964541</v>
+        <v>130964545</v>
       </c>
       <c r="B107" t="n">
-        <v>91810</v>
+        <v>57073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509703</v>
+        <v>509535</v>
       </c>
       <c r="R107" t="n">
-        <v>6719018</v>
+        <v>6718925</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964533</v>
+        <v>130964645</v>
       </c>
       <c r="B112" t="n">
-        <v>79245</v>
+        <v>99038</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509984</v>
+        <v>509804</v>
       </c>
       <c r="R112" t="n">
-        <v>6719028</v>
+        <v>6719024</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="AC112" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -12999,32 +12999,32 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>130964650</v>
+        <v>130964533</v>
       </c>
       <c r="B113" t="n">
-        <v>92269</v>
+        <v>79245</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13034,10 +13034,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>509694</v>
+        <v>509984</v>
       </c>
       <c r="R113" t="n">
-        <v>6718936</v>
+        <v>6719028</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="AC113" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B114" t="n">
-        <v>99038</v>
+        <v>92269</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R114" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -12081,32 +12081,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B104" t="n">
-        <v>99038</v>
+        <v>79245</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R104" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12176,39 +12176,39 @@
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964537</v>
+        <v>130964545</v>
       </c>
       <c r="B105" t="n">
-        <v>79245</v>
+        <v>57073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509822</v>
+        <v>509535</v>
       </c>
       <c r="R105" t="n">
-        <v>6718960</v>
+        <v>6718925</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12285,32 +12285,32 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B106" t="n">
-        <v>91810</v>
+        <v>99038</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R106" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12380,39 +12380,39 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B107" t="n">
-        <v>57073</v>
+        <v>91810</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R107" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -13203,32 +13203,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>130964539</v>
+        <v>130964527</v>
       </c>
       <c r="B115" t="n">
-        <v>98932</v>
+        <v>79245</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13238,10 +13238,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>509808</v>
+        <v>509597</v>
       </c>
       <c r="R115" t="n">
-        <v>6719041</v>
+        <v>6719076</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="AC115" t="inlineStr">
         <is>
-          <t>Flera . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13298,39 +13298,39 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>130964527</v>
+        <v>130964539</v>
       </c>
       <c r="B116" t="n">
-        <v>79245</v>
+        <v>98932</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13340,10 +13340,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>509597</v>
+        <v>509808</v>
       </c>
       <c r="R116" t="n">
-        <v>6719076</v>
+        <v>6719041</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Flera . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13917,32 +13917,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B122" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R122" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14012,39 +14012,39 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
+          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B123" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R123" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
@@ -14631,32 +14631,32 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>130964639</v>
+        <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>57073</v>
+        <v>91810</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14666,10 +14666,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>509645</v>
+        <v>509764</v>
       </c>
       <c r="R129" t="n">
-        <v>6719169</v>
+        <v>6719043</v>
       </c>
       <c r="S129" t="n">
         <v>15</v>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="AC129" t="inlineStr">
         <is>
-          <t>Vinterspillning . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD129" t="b">
@@ -14733,32 +14733,32 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130964646</v>
+        <v>130964639</v>
       </c>
       <c r="B130" t="n">
-        <v>91810</v>
+        <v>57073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1202</v>
+        <v>100138</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14768,10 +14768,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>509764</v>
+        <v>509645</v>
       </c>
       <c r="R130" t="n">
-        <v>6719043</v>
+        <v>6719169</v>
       </c>
       <c r="S130" t="n">
         <v>15</v>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Vinterspillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD130" t="b">

--- a/artfynd/A 51820-2025 artfynd.xlsx
+++ b/artfynd/A 51820-2025 artfynd.xlsx
@@ -11462,7 +11462,7 @@
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
@@ -11472,7 +11472,7 @@
         <v>130964396</v>
       </c>
       <c r="B98" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
@@ -11574,7 +11574,7 @@
         <v>130964540</v>
       </c>
       <c r="B99" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr"/>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY100" t="inlineStr"/>
@@ -11877,10 +11877,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>130964526</v>
+        <v>130964547</v>
       </c>
       <c r="B102" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -11888,21 +11888,21 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11912,10 +11912,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>509610</v>
+        <v>509495</v>
       </c>
       <c r="R102" t="n">
-        <v>6719050</v>
+        <v>6718877</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Födosökspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11979,10 +11979,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130964547</v>
+        <v>130964526</v>
       </c>
       <c r="B103" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -11990,21 +11990,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12014,10 +12014,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>509495</v>
+        <v>509610</v>
       </c>
       <c r="R103" t="n">
-        <v>6718877</v>
+        <v>6719050</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>Födosökspår . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12074,39 +12074,39 @@
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>130964537</v>
+        <v>130964545</v>
       </c>
       <c r="B104" t="n">
-        <v>79245</v>
+        <v>57073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>100138</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12116,10 +12116,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>509822</v>
+        <v>509535</v>
       </c>
       <c r="R104" t="n">
-        <v>6718960</v>
+        <v>6718925</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>Rikligt . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12176,39 +12176,39 @@
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>130964545</v>
+        <v>130964541</v>
       </c>
       <c r="B105" t="n">
-        <v>57073</v>
+        <v>91813</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100138</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12218,10 +12218,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>509535</v>
+        <v>509703</v>
       </c>
       <c r="R105" t="n">
-        <v>6718925</v>
+        <v>6719018</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AC105" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12278,39 +12278,39 @@
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>130964642</v>
+        <v>130964537</v>
       </c>
       <c r="B106" t="n">
-        <v>99038</v>
+        <v>79245</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12320,10 +12320,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>509917</v>
+        <v>509822</v>
       </c>
       <c r="R106" t="n">
-        <v>6719042</v>
+        <v>6718960</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AC106" t="inlineStr">
         <is>
-          <t>Måttliga förekomster . inventering åt vasa vind</t>
+          <t>Rikligt . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12387,32 +12387,32 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>130964541</v>
+        <v>130964642</v>
       </c>
       <c r="B107" t="n">
-        <v>91810</v>
+        <v>99041</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12422,10 +12422,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>509703</v>
+        <v>509917</v>
       </c>
       <c r="R107" t="n">
-        <v>6719018</v>
+        <v>6719042</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Måttliga förekomster . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -12482,7 +12482,7 @@
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY108" t="inlineStr"/>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="AX109" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY109" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
         <v>130964641</v>
       </c>
       <c r="B110" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>130964647</v>
       </c>
       <c r="B111" t="n">
-        <v>92108</v>
+        <v>92111</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -12897,32 +12897,32 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>130964645</v>
+        <v>130964650</v>
       </c>
       <c r="B112" t="n">
-        <v>99038</v>
+        <v>92272</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -12932,10 +12932,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>509804</v>
+        <v>509694</v>
       </c>
       <c r="R112" t="n">
-        <v>6719024</v>
+        <v>6718936</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13101,32 +13101,32 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130964650</v>
+        <v>130964645</v>
       </c>
       <c r="B114" t="n">
-        <v>92269</v>
+        <v>99041</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13136,10 +13136,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>509694</v>
+        <v>509804</v>
       </c>
       <c r="R114" t="n">
-        <v>6718936</v>
+        <v>6719024</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13308,7 +13308,7 @@
         <v>130964539</v>
       </c>
       <c r="B116" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr"/>
@@ -13512,7 +13512,7 @@
         <v>130964651</v>
       </c>
       <c r="B118" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>130964648</v>
       </c>
       <c r="B119" t="n">
-        <v>92269</v>
+        <v>92272</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>130964649</v>
       </c>
       <c r="B120" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -13910,39 +13910,39 @@
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Sofia Berg, Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>130964542</v>
+        <v>130964640</v>
       </c>
       <c r="B122" t="n">
-        <v>57073</v>
+        <v>57881</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100138</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13952,10 +13952,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>509635</v>
+        <v>509697</v>
       </c>
       <c r="R122" t="n">
-        <v>6718941</v>
+        <v>6719144</v>
       </c>
       <c r="S122" t="n">
         <v>15</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>Spillning . inventering åt vasa vind</t>
+          <t>Gamla födosöksspår . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14012,39 +14012,39 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>130964640</v>
+        <v>130964542</v>
       </c>
       <c r="B123" t="n">
-        <v>57881</v>
+        <v>57073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100049</v>
+        <v>100138</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14054,10 +14054,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>509697</v>
+        <v>509635</v>
       </c>
       <c r="R123" t="n">
-        <v>6719144</v>
+        <v>6718941</v>
       </c>
       <c r="S123" t="n">
         <v>15</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>Gamla födosöksspår . inventering åt vasa vind</t>
+          <t>Spillning . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14124,7 +14124,7 @@
         <v>130964644</v>
       </c>
       <c r="B124" t="n">
-        <v>98919</v>
+        <v>98922</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>130964643</v>
       </c>
       <c r="B125" t="n">
-        <v>98932</v>
+        <v>98935</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>130964390</v>
       </c>
       <c r="B126" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -14420,39 +14420,39 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>130964538</v>
+        <v>130964546</v>
       </c>
       <c r="B127" t="n">
-        <v>79245</v>
+        <v>92508</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6425</v>
+        <v>898</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14462,10 +14462,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>509875</v>
+        <v>509515</v>
       </c>
       <c r="R127" t="n">
-        <v>6719025</v>
+        <v>6718886</v>
       </c>
       <c r="S127" t="n">
         <v>15</v>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="AC127" t="inlineStr">
         <is>
-          <t>Enstaka . inventering åt vasa vind</t>
+          <t>Betydande förekomst . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -14522,39 +14522,39 @@
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>130964546</v>
+        <v>130964538</v>
       </c>
       <c r="B128" t="n">
-        <v>92505</v>
+        <v>79245</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>898</v>
+        <v>6425</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14564,10 +14564,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>509515</v>
+        <v>509875</v>
       </c>
       <c r="R128" t="n">
-        <v>6718886</v>
+        <v>6719025</v>
       </c>
       <c r="S128" t="n">
         <v>15</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="AC128" t="inlineStr">
         <is>
-          <t>Betydande förekomst . inventering åt vasa vind</t>
+          <t>Enstaka . inventering åt vasa vind</t>
         </is>
       </c>
       <c r="AD128" t="b">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Enviro Planning, Anders Esplund, Anna Sjövall, Pia Edfors, Sofia Berg</t>
+          <t>Sofia Berg, Pia Edfors, Anna Sjövall, Anders Esplund, Enviro Planning</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
@@ -14634,7 +14634,7 @@
         <v>130964646</v>
       </c>
       <c r="B129" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
